--- a/viettel_ns/Report_ExcelFrom/NguonNS/rpt_NguonNS_BaoCao1.xlsx
+++ b/viettel_ns/Report_ExcelFrom/NguonNS/rpt_NguonNS_BaoCao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (3)\NguonNS\Template_NNS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\BQP\14-09-2022\sourcecode\viettel_ns\Report_ExcelFrom\NguonNS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -574,9 +574,18 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,15 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -882,13 +882,13 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
@@ -899,31 +899,31 @@
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="29" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -937,23 +937,23 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="31"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -980,10 +980,10 @@
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="20" t="s">
         <v>61</v>
       </c>
@@ -1008,10 +1008,10 @@
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="20" t="s">
         <v>68</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1128,159 +1128,159 @@
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="32"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="32"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32" t="s">
+      <c r="F20" s="35"/>
+      <c r="G20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32" t="s">
+      <c r="H20" s="35"/>
+      <c r="I20" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
@@ -1297,20 +1297,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K20:L20"/>
@@ -1320,10 +1306,24 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"&amp;12Tờ: &lt;#To&gt;- Trang: &amp;P/&amp;N</oddHeader>
   </headerFooter>
